--- a/SP_Sklad/TempLate/Recipe.xlsx
+++ b/SP_Sklad/TempLate/Recipe.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\server\SP-Sklad\TempLate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F85B5E9-A2B0-4446-821A-D109ADCE9350}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="840" windowWidth="14175" windowHeight="7260"/>
+    <workbookView xWindow="135" yWindow="840" windowWidth="14175" windowHeight="7260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,22 +20,19 @@
     <definedName name="ChargeTypeGroup">Лист1!#REF!</definedName>
     <definedName name="DocList">Лист1!#REF!</definedName>
     <definedName name="INCOMES">Лист1!#REF!</definedName>
-    <definedName name="MatRecDet">Лист1!$A$17:$H$18</definedName>
+    <definedName name="MatRecDet">Лист1!$A$18:$I$19</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
-    <definedName name="RawMaterialGrp">Лист1!$A$16:$H$19</definedName>
+    <definedName name="RawMaterialGrp">Лист1!$A$17:$I$20</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="WaybillList">Лист1!#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$14:$15</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$15:$16</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
-  <si>
-    <t>Номер</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Затверджую</t>
   </si>
@@ -86,9 +89,6 @@
     <t>__________________________ ПІБ</t>
   </si>
   <si>
-    <t>"_____"______________________ 2022р.</t>
-  </si>
-  <si>
     <t>1. Склад сировини на закладку</t>
   </si>
   <si>
@@ -105,17 +105,33 @@
   </si>
   <si>
     <t>Кількість</t>
+  </si>
+  <si>
+    <t>Середня ціна</t>
+  </si>
+  <si>
+    <t>Прогнозована собівартість:</t>
+  </si>
+  <si>
+    <t>"_____"______________________ 2023р.</t>
+  </si>
+  <si>
+    <t>Вартість</t>
+  </si>
+  <si>
+    <t>грн.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy\ h:mm;@"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -242,6 +258,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="4">
@@ -264,7 +286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -286,17 +308,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="55"/>
-      </left>
-      <right style="thin">
-        <color indexed="55"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color indexed="55"/>
       </left>
@@ -427,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -460,19 +471,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -481,17 +486,70 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -499,8 +557,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="165" fontId="14" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="165" fontId="14" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
@@ -508,47 +566,11 @@
     <xf numFmtId="165" fontId="14" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,6 +650,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -675,7 +700,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -707,9 +732,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -741,6 +784,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -916,13 +977,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:L33"/>
+  <dimension ref="B1:M34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" style="1" customWidth="1"/>
@@ -931,139 +994,150 @@
     <col min="5" max="5" width="13.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="17.25" customHeight="1">
+    <row r="1" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="F1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="14"/>
-    </row>
-    <row r="2" spans="2:12" ht="17.25" customHeight="1">
+      <c r="F1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="14"/>
+    </row>
+    <row r="2" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
       <c r="F2" s="14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="2:12" ht="17.25" customHeight="1">
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
       <c r="F3" s="14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
-    </row>
-    <row r="4" spans="2:12" ht="17.25" customHeight="1">
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="F4" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="I4"/>
-    </row>
-    <row r="5" spans="2:12" ht="17.25" customHeight="1">
+      <c r="I4" s="8"/>
+      <c r="J4"/>
+    </row>
+    <row r="5" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
       <c r="F5" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="I5"/>
-    </row>
-    <row r="6" spans="2:12" ht="22.5" customHeight="1">
+      <c r="I5" s="8"/>
+      <c r="J5"/>
+    </row>
+    <row r="6" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B7" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="10"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B8" s="26" t="e">
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="31" t="e">
         <f>MatRecipe_Name</f>
         <v>#NAME?</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="10"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="2:12" ht="17.25" customHeight="1">
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="2:12" ht="17.25" customHeight="1">
+      <c r="H9" s="4"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="22" t="e">
+      <c r="E10" s="20" t="e">
         <f>MatRecipe_Amount</f>
         <v>#NAME?</v>
       </c>
-      <c r="F10" s="21" t="e">
+      <c r="F10" s="19" t="e">
         <f>MatRecipe_ShortName</f>
         <v>#NAME?</v>
       </c>
       <c r="G10" s="15"/>
-      <c r="H10"/>
+      <c r="H10" s="15"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
-    </row>
-    <row r="11" spans="2:12" ht="17.25" customHeight="1">
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
@@ -1071,310 +1145,359 @@
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
-    </row>
-    <row r="12" spans="2:12" ht="17.25" customHeight="1">
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="22" t="e">
+      <c r="D12" s="20" t="e">
         <f>MatRecipe_Out</f>
         <v>#NAME?</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
       <c r="H12"/>
-    </row>
-    <row r="13" spans="2:12" ht="25.5" customHeight="1">
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" s="9"/>
-      <c r="D13" s="22" t="e">
+      <c r="D13" s="20" t="e">
         <f>MatRecipe_ThermoLossOut</f>
         <v>#NAME?</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
-    </row>
-    <row r="14" spans="2:12" ht="14.25" customHeight="1">
-      <c r="B14" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="24" t="s">
+      <c r="I13"/>
+    </row>
+    <row r="14" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="49" t="e">
+        <f>SUM(J:J)/(E10*D12/100)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="18" customHeight="1">
-      <c r="B15" s="44"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-    </row>
-    <row r="16" spans="2:12" ht="19.5" customHeight="1">
-      <c r="B16" s="27" t="e">
+      <c r="J15" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+    </row>
+    <row r="17" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="43" t="e">
         <f>RawMaterialGrp_Name</f>
         <v>#NAME?</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
-    </row>
-    <row r="17" spans="2:12" ht="15" customHeight="1">
-      <c r="B17" s="16" t="e">
-        <f>MatRecDet_MatId</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C17" s="39" t="e">
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="25"/>
+    </row>
+    <row r="18" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="39" t="e">
         <f>MatRecDet_Name</f>
         <v>#NAME?</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="20" t="e">
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="18" t="e">
         <f>MatRecDet_ShortName</f>
         <v>#NAME?</v>
       </c>
-      <c r="H17" s="17" t="e">
+      <c r="H18" s="24" t="e">
+        <f>MatRecDet_AvgPrice</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I18" s="21" t="e">
         <f>MatRecDet_Amount</f>
         <v>#NAME?</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" ht="12.75" customHeight="1">
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
-    </row>
-    <row r="19" spans="2:12" ht="12.75" customHeight="1">
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="21" spans="2:12" ht="12.75" customHeight="1">
-      <c r="B21" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-    </row>
-    <row r="22" spans="2:12" ht="12.75" customHeight="1">
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="12"/>
+      <c r="J18" s="50" t="e">
+        <f>I18*H18</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="22" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
     </row>
-    <row r="23" spans="2:12" ht="12.75" customHeight="1">
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="12"/>
+    <row r="23" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
-    </row>
-    <row r="24" spans="2:12" ht="12.75" customHeight="1">
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="12"/>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
-    </row>
-    <row r="25" spans="2:12" ht="12.75" customHeight="1">
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="12"/>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
-    </row>
-    <row r="26" spans="2:12" ht="12.75" customHeight="1">
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="12"/>
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
-    </row>
-    <row r="27" spans="2:12" ht="12.75" customHeight="1">
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="12"/>
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
-    </row>
-    <row r="28" spans="2:12">
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-    </row>
-    <row r="29" spans="2:12" ht="18.75">
-      <c r="B29" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="11"/>
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29"/>
-    </row>
-    <row r="30" spans="2:12" ht="18.75">
-      <c r="B30" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30"/>
+      <c r="M29"/>
+    </row>
+    <row r="30" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B30" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="22"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30"/>
-    </row>
-    <row r="31" spans="2:12" ht="18.75">
+      <c r="M30"/>
+    </row>
+    <row r="31" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31"/>
+      <c r="H31" s="8"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31"/>
-    </row>
-    <row r="32" spans="2:12" ht="18.75">
-      <c r="B32" s="8"/>
+      <c r="M31"/>
+    </row>
+    <row r="32" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B32" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="H32"/>
+      <c r="H32" s="8"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32"/>
-    </row>
-    <row r="33" spans="2:12" ht="18.75">
-      <c r="B33" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="M32"/>
+    </row>
+    <row r="33" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33"/>
+      <c r="H33" s="8"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33"/>
+      <c r="M33"/>
+    </row>
+    <row r="34" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B34" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B21:H27"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="B7:H7"/>
+  <mergeCells count="14">
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B17:I17"/>
     <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="C14:F15"/>
-    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B22:I28"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B15:F16"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="H15:H16"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/SP_Sklad/TempLate/Recipe.xlsx
+++ b/SP_Sklad/TempLate/Recipe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\server\SP-Sklad\TempLate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WinVSProjects\SP-Sklad\SP_Sklad\TempLate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F85B5E9-A2B0-4446-821A-D109ADCE9350}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B55065-7879-4D41-8826-303B08F4A179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="840" windowWidth="14175" windowHeight="7260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="795" windowWidth="27900" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,18 @@
     <definedName name="WaybillList">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$15:$16</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -38,12 +49,6 @@
   </si>
   <si>
     <t>Директор з виробництва</t>
-  </si>
-  <si>
-    <t>ТОВ "Брусилівські ковбаси"</t>
-  </si>
-  <si>
-    <t>_______________ М.С.Грицай</t>
   </si>
   <si>
     <t>"_____"_____________2022р</t>
@@ -120,6 +125,12 @@
   </si>
   <si>
     <t>грн.</t>
+  </si>
+  <si>
+    <t>Назва підприемства</t>
+  </si>
+  <si>
+    <t>_______________ П.П.Петров</t>
   </si>
 </sst>
 </file>
@@ -438,26 +449,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -467,7 +474,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -477,7 +483,7 @@
     <xf numFmtId="1" fontId="15" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -489,33 +495,54 @@
     <xf numFmtId="166" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -536,41 +563,14 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -981,8 +981,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="B1:M34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1003,51 +1003,51 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="14"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="F3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="F4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
       <c r="J4"/>
     </row>
     <row r="5" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1055,12 +1055,12 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="F5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
       <c r="J5"/>
     </row>
     <row r="6" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1074,37 +1074,37 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="B7" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="31" t="e">
+      <c r="B8" s="27" t="e">
         <f>MatRecipe_Name</f>
         <v>#NAME?</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
@@ -1117,21 +1117,21 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="20" t="e">
+      <c r="B10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="17" t="e">
         <f>MatRecipe_Amount</f>
         <v>#NAME?</v>
       </c>
-      <c r="F10" s="19" t="e">
+      <c r="F10" s="16" t="e">
         <f>MatRecipe_ShortName</f>
         <v>#NAME?</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1148,16 +1148,16 @@
       <c r="I11"/>
     </row>
     <row r="12" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="20" t="e">
+      <c r="B12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="17" t="e">
         <f>MatRecipe_Out</f>
         <v>#NAME?</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>15</v>
+      <c r="E12" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
@@ -1165,16 +1165,16 @@
       <c r="I12"/>
     </row>
     <row r="13" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="20" t="e">
+      <c r="B13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="17" t="e">
         <f>MatRecipe_ThermoLossOut</f>
         <v>#NAME?</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>15</v>
+      <c r="E13" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F13"/>
       <c r="G13"/>
@@ -1182,213 +1182,213 @@
       <c r="I13"/>
     </row>
     <row r="14" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="49" t="e">
+      <c r="B14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="22" t="e">
         <f>SUM(J:J)/(E10*D12/100)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F14" s="26" t="s">
-        <v>21</v>
+      <c r="F14" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
     </row>
     <row r="15" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="27" t="s">
+      <c r="B15" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>20</v>
+      <c r="J15" s="25" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
     </row>
     <row r="17" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="43" t="e">
+      <c r="B17" s="28" t="e">
         <f>RawMaterialGrp_Name</f>
         <v>#NAME?</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="25"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="20"/>
     </row>
     <row r="18" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="39" t="e">
+      <c r="B18" s="43" t="e">
         <f>MatRecDet_Name</f>
         <v>#NAME?</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="18" t="e">
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="15" t="e">
         <f>MatRecDet_ShortName</f>
         <v>#NAME?</v>
       </c>
-      <c r="H18" s="24" t="e">
+      <c r="H18" s="19" t="e">
         <f>MatRecDet_AvgPrice</f>
         <v>#NAME?</v>
       </c>
-      <c r="I18" s="21" t="e">
+      <c r="I18" s="18" t="e">
         <f>MatRecDet_Amount</f>
         <v>#NAME?</v>
       </c>
-      <c r="J18" s="50" t="e">
+      <c r="J18" s="23" t="e">
         <f>I18*H18</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
     </row>
     <row r="20" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="23"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
       <c r="I20" s="5"/>
     </row>
     <row r="22" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
+      <c r="B22" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
     </row>
     <row r="23" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
     </row>
     <row r="24" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
     </row>
     <row r="25" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
     </row>
     <row r="26" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
     </row>
     <row r="27" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
     </row>
     <row r="28" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29"/>
@@ -1405,15 +1405,15 @@
       <c r="M29"/>
     </row>
     <row r="30" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B30" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="22"/>
+      <c r="B30" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -1421,15 +1421,15 @@
       <c r="M30"/>
     </row>
     <row r="31" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B31" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="B31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -1437,15 +1437,15 @@
       <c r="M31"/>
     </row>
     <row r="32" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
+      <c r="B32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -1453,13 +1453,13 @@
       <c r="M32"/>
     </row>
     <row r="33" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -1467,15 +1467,15 @@
       <c r="M33"/>
     </row>
     <row r="34" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B34" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
+      <c r="B34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -1484,11 +1484,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B19:E19"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="B30:F30"/>
     <mergeCell ref="B22:I28"/>
@@ -1498,6 +1493,11 @@
     <mergeCell ref="B15:F16"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="H15:H16"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B19:E19"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
